--- a/bigfinance-master/result/price_track_mean_cross/40/year/2015_trade.xlsx
+++ b/bigfinance-master/result/price_track_mean_cross/40/year/2015_trade.xlsx
@@ -40,28 +40,12 @@
     <t>000001.XSHE</t>
   </si>
   <si>
-    <t>[2. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+    <t>[1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0.]</t>
   </si>
   <si>
-    <t>[0. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0.]</t>
-  </si>
-  <si>
-    <t>[0. 0. 2. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0.]</t>
-  </si>
-  <si>
-    <t>[0. 2. 2. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0.]</t>
-  </si>
-  <si>
-    <t>[2. 0. 2. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0.]</t>
-  </si>
-  <si>
-    <t>[1. 0. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
- 0. 0.]</t>
+    <t>[ 0. -1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.]</t>
   </si>
   <si>
     <t>[0. 0. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
@@ -70,6 +54,22 @@
   <si>
     <t>[0. 1. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
  0. 0.]</t>
+  </si>
+  <si>
+    <t>[1. 0. 1. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.
+ 0. 0.]</t>
+  </si>
+  <si>
+    <t>[-1.  0. -1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0.  0. -1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.]</t>
+  </si>
+  <si>
+    <t>[ 0. -1. -1.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.
+  0.  0.  0.  0.  0.  0.  0.  0.]</t>
   </si>
 </sst>
 </file>
